--- a/Track scaling.xlsx
+++ b/Track scaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30d04f286ce170e4/NCSU/Graduate/ECE756/Project/ECE756_Control_App/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OneDrive\NCSU\Graduate\ECE756\Project\Exam 2\ECE756_Control_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{C4A7AD21-8AAB-4FBF-BDC3-F2A0DAFF0529}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2DAC59E7-D693-480B-ACF5-56E1A9DF05D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD178E1-07E1-44D2-94DF-96BFF913D375}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20145" yWindow="4680" windowWidth="16755" windowHeight="12540" xr2:uid="{62D8038B-D0C5-4821-9074-C1CCB0CB8015}"/>
+    <workbookView xWindow="43395" yWindow="3390" windowWidth="16695" windowHeight="14715" xr2:uid="{62D8038B-D0C5-4821-9074-C1CCB0CB8015}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>x</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>bottom left pos</t>
-  </si>
-  <si>
-    <t>Pixel bounds on gui</t>
   </si>
   <si>
     <t>Pixel range used for scaling</t>
@@ -163,10 +160,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -486,7 +483,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,14 +492,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -511,12 +508,6 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -525,23 +516,6 @@
       <c r="B3">
         <v>-1925.58</v>
       </c>
-      <c r="D3">
-        <v>466</v>
-      </c>
-      <c r="E3">
-        <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>1192</v>
-      </c>
-      <c r="E4">
-        <v>592</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -567,15 +541,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7">
-        <f>D4-D3</f>
-        <v>726</v>
+        <v>749</v>
       </c>
       <c r="E7">
-        <f>E4-E3</f>
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -608,11 +580,11 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10">
         <f>D7/A9</f>
-        <v>149.68985624999999</v>
+        <v>154.43209687499998</v>
       </c>
       <c r="E10">
         <f>-E7/B9</f>
-        <v>-145.48826666666665</v>
+        <v>-150.30221666666665</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -675,14 +647,14 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="2"/>
       <c r="D17" t="s">
         <v>0</v>
       </c>
@@ -716,7 +688,7 @@
         <v>-0.2988694938667833</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
